--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -9,27 +9,14 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="保險" sheetId="13" r:id="rId13"/>
-    <sheet name="債權" sheetId="14" r:id="rId14"/>
-    <sheet name="債務" sheetId="15" r:id="rId15"/>
-    <sheet name="事業投資" sheetId="16" r:id="rId16"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>土地坐落</t>
   </si>
@@ -142,60 +129,21 @@
     <t>70年12月 21曰</t>
   </si>
   <si>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠</t>
-  </si>
-  <si>
-    <t>牌型號</t>
-  </si>
-  <si>
-    <t>汽缸</t>
-  </si>
-  <si>
-    <t>容</t>
-  </si>
-  <si>
-    <t>量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
     <t>中原大學郵局（中壢1 2支 局）</t>
   </si>
   <si>
@@ -215,138 +163,6 @@
   </si>
   <si>
     <t>新臺幣</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>債權</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>地</t>
-  </si>
-  <si>
-    <t>址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>金額</t>
   </si>
 </sst>
 </file>
@@ -869,336 +685,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
@@ -1341,13 +827,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1361,355 +847,127 @@
         <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>217000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>190000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>468000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>770000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2500000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>46000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -16,9 +16,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00470000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段01240000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段01250000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區溪山段5小段03090000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門段02590000地號</t>
+  </si>
+  <si>
+    <t>14分之1</t>
+  </si>
+  <si>
+    <t>1000分之41</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>張曉風</t>
+  </si>
+  <si>
+    <t>林治平</t>
+  </si>
+  <si>
+    <t>88年04月19曰</t>
+  </si>
+  <si>
+    <t>77年11月24H</t>
+  </si>
+  <si>
+    <t>77年11月24日</t>
+  </si>
+  <si>
+    <t>63年08月28日</t>
+  </si>
+  <si>
+    <t>69年05月15円</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>地籍圖重測</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超媧石年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp23631</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,94 +153,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區金華段二小段 0047-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 0124-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 0125-0000 地號</t>
-  </si>
-  <si>
-    <t>★臺北市大安區溪山段5小段 0309-0000 地號</t>
-  </si>
-  <si>
-    <t>★臺北市中正區東門段 0259-0000 地號</t>
-  </si>
-  <si>
-    <t>14分之1</t>
-  </si>
-  <si>
-    <t>1000分之 41</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>張曉風</t>
-  </si>
-  <si>
-    <t>林治平</t>
-  </si>
-  <si>
-    <t>88年04月 19曰</t>
-  </si>
-  <si>
-    <t>77年11月 24 H</t>
-  </si>
-  <si>
-    <t>77年11月 24日</t>
-  </si>
-  <si>
-    <t>63年08月 28日</t>
-  </si>
-  <si>
-    <t>69年05月 15円</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>地籍圖重 測</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超媧石年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 00850-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 21133-000 建號</t>
-  </si>
-  <si>
-    <t>★臺北市中正區東門段 02262-003 建號</t>
-  </si>
-  <si>
-    <t>★臺北市北投區唭哩岸段 00138-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 41</t>
-  </si>
-  <si>
-    <t>88年04月 20日</t>
-  </si>
-  <si>
-    <t>70年11月 24日</t>
-  </si>
-  <si>
-    <t>57年01月 17 □</t>
-  </si>
-  <si>
-    <t>70年12月 21曰</t>
+    <t>臺北市大安區金華段二小段00850000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段21133000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門段02262003建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區唭哩岸段00138000建號</t>
+  </si>
+  <si>
+    <t>10000分之41</t>
+  </si>
+  <si>
+    <t>88年04月20日</t>
+  </si>
+  <si>
+    <t>70年11月24日</t>
+  </si>
+  <si>
+    <t>57年01月17□</t>
+  </si>
+  <si>
+    <t>70年12月21曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -144,7 +195,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中原大學郵局（中壢1 2支 局）</t>
+    <t>中原大學郵局（中壢12支局）</t>
   </si>
   <si>
     <t>臺灣銀行營業部</t>
@@ -153,7 +204,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支 局）</t>
+    <t>台北東門郵局（台北1支局）</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -521,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,135 +600,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1949.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>62.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>398.16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>600</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -695,25 +872,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -721,25 +898,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>118.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -747,25 +924,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>36.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -773,25 +950,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>128.93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -799,25 +976,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>2037</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -835,19 +1012,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -855,16 +1032,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>217000</v>
@@ -875,16 +1052,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>190000</v>
@@ -895,16 +1072,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>468000</v>
@@ -915,16 +1092,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>770000</v>
@@ -935,16 +1112,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>2500000</v>
@@ -955,16 +1132,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>46000</v>

--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區金華段二小段00470000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市北投區行義段二小段01240000地號</t>
@@ -75,85 +78,64 @@
     <t>臺北市中正區東門段02590000地號</t>
   </si>
   <si>
+    <t>1000分之41</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>林治平</t>
+  </si>
+  <si>
+    <t>張曉風</t>
+  </si>
+  <si>
+    <t>77年11月24H</t>
+  </si>
+  <si>
+    <t>77年11月24日</t>
+  </si>
+  <si>
+    <t>63年08月28日</t>
+  </si>
+  <si>
+    <t>69年05月15円</t>
+  </si>
+  <si>
+    <t>地籍圖重測</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超媧石年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp23631</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00850000建號</t>
+  </si>
+  <si>
     <t>14分之1</t>
   </si>
   <si>
-    <t>1000分之41</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>張曉風</t>
-  </si>
-  <si>
-    <t>林治平</t>
-  </si>
-  <si>
-    <t>88年04月19曰</t>
-  </si>
-  <si>
-    <t>77年11月24H</t>
-  </si>
-  <si>
-    <t>77年11月24日</t>
-  </si>
-  <si>
-    <t>63年08月28日</t>
-  </si>
-  <si>
-    <t>69年05月15円</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>地籍圖重測</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超媧石年)</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp23631</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段00850000建號</t>
+    <t>88年04月20日</t>
   </si>
   <si>
     <t>臺北市北投區行義段二小段21133000建號</t>
@@ -168,9 +150,6 @@
     <t>10000分之41</t>
   </si>
   <si>
-    <t>88年04月20日</t>
-  </si>
-  <si>
     <t>70年11月24日</t>
   </si>
   <si>
@@ -180,24 +159,15 @@
     <t>70年12月21曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>中原大學郵局（中壢12支局）</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行營業部</t>
   </si>
   <si>
@@ -207,13 +177,7 @@
     <t>台北東門郵局（台北1支局）</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
   </si>
 </sst>
 </file>
@@ -572,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,19 +585,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>315</v>
+        <v>1949.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -642,92 +612,104 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1748</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.041</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>79.91474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1949.14</v>
+        <v>62.6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1748</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.041</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.5666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>62.6</v>
+        <v>398.16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -736,48 +718,54 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1748</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>398.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>398.16</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>28</v>
@@ -786,75 +774,34 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1748</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>600</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1748</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
+      <c r="P5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,129 +819,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>118.93</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>118.93</v>
+        <v>36.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>36.25</v>
+        <v>128.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>128.93</v>
+        <v>2037</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2037</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,138 +933,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>217000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>217000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>190000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>468000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>770000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
         <v>46000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區金華段二小段00470000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區行義段二小段01240000地號</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>臺北市中正區東門段02590000地號</t>
   </si>
   <si>
+    <t>14分之1</t>
+  </si>
+  <si>
     <t>1000分之41</t>
   </si>
   <si>
@@ -87,10 +93,13 @@
     <t>8分之1</t>
   </si>
   <si>
+    <t>張曉風</t>
+  </si>
+  <si>
     <t>林治平</t>
   </si>
   <si>
-    <t>張曉風</t>
+    <t>88年04月19曰</t>
   </si>
   <si>
     <t>77年11月24H</t>
@@ -105,12 +114,12 @@
     <t>69年05月15円</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>地籍圖重測</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -132,22 +141,19 @@
     <t>臺北市大安區金華段二小段00850000建號</t>
   </si>
   <si>
-    <t>14分之1</t>
+    <t>臺北市北投區行義段二小段21133000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門段02262003建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區唭哩岸段00138000建號</t>
+  </si>
+  <si>
+    <t>10000分之41</t>
   </si>
   <si>
     <t>88年04月20日</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段21133000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區東門段02262003建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區唭哩岸段00138000建號</t>
-  </si>
-  <si>
-    <t>10000分之41</t>
   </si>
   <si>
     <t>70年11月24日</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,213 +600,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1949.14</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1748</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.041</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q2" s="2">
-        <v>79.91474</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>62.6</v>
+        <v>1949.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>1748</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.041</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.5666</v>
+        <v>79.91474</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>398.16</v>
+        <v>62.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>1748</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.041</v>
       </c>
       <c r="Q4" s="2">
-        <v>398.16</v>
+        <v>2.5666</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>600</v>
+        <v>398.16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>1748</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>398.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>600</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="2">
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
         <v>17</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.125</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>75</v>
       </c>
     </row>
@@ -811,111 +870,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>118.93</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>36.25</v>
+        <v>118.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8.495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>128.93</v>
+        <v>36.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.041</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.48625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2">
+        <v>128.93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>128.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
         <v>2037</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.3517</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -933,16 +1153,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1">
         <v>217000</v>
@@ -950,101 +1170,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>190000</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>468000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>770000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>2500000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
         <v>46000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>70年12月21曰</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>中原大學郵局（中壢12支局）</t>
@@ -952,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1005,7 +1008,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1058,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1111,7 +1114,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1153,13 +1156,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1173,13 +1176,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1193,13 +1196,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1213,13 +1216,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1233,13 +1236,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1253,13 +1256,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1273,13 +1276,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>

--- a/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
+++ b/legislator/property/output/normal/張曉風_2012-04-30_財產申報表_tmp23631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -168,25 +168,37 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中原大學郵局（中壢12支局）</t>
   </si>
   <si>
+    <t>臺灣銀行營業部</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行營業部</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北東門郵局（台北1支局）</t>
-  </si>
-  <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -1148,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1165,24 +1177,45 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1">
-        <v>217000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1190,19 +1223,40 @@
       <c r="F2" s="2">
         <v>217000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1210,19 +1264,40 @@
       <c r="F3" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1230,19 +1305,40 @@
       <c r="F4" s="2">
         <v>468000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1250,19 +1346,40 @@
       <c r="F5" s="2">
         <v>770000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1270,25 +1387,67 @@
       <c r="F6" s="2">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>46000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
